--- a/ProjectEstimationTemplate.xlsx
+++ b/ProjectEstimationTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhash/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D80F737-2E88-5241-B950-47F7D58C908F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB614247-EA3C-6346-A39C-4DE250663253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="500" windowWidth="32120" windowHeight="20500" xr2:uid="{1B655C53-9223-9C48-865C-9AC28ECBCECA}"/>
+    <workbookView xWindow="1480" yWindow="500" windowWidth="32120" windowHeight="20500" activeTab="1" xr2:uid="{1B655C53-9223-9C48-865C-9AC28ECBCECA}"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="3" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>#</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Price</t>
-  </si>
-  <si>
-    <t>Cost Planned</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -290,6 +287,9 @@
   <si>
     <t>Please note that excel has been created to support 50 Activities, resources, levels and about 100 allocations (activity - resource mappings). A majority of these rows are hidden.</t>
   </si>
+  <si>
+    <t>Planned Cost</t>
+  </si>
 </sst>
 </file>
 
@@ -338,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -806,11 +806,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -918,9 +931,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -942,11 +952,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <font>
         <color theme="0"/>
@@ -954,6 +973,16 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1279,7 +1308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC6CCE2-EB73-494E-8587-024C1544A406}">
   <dimension ref="B1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1291,17 +1320,17 @@
   <sheetData>
     <row r="1" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="44"/>
+      <c r="B2" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="43"/>
     </row>
     <row r="3" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="17" x14ac:dyDescent="0.2">
@@ -1309,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -1317,7 +1346,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -1325,7 +1354,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -1333,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="17" x14ac:dyDescent="0.2">
@@ -1341,7 +1370,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -1349,7 +1378,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -1357,7 +1386,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1377,21 +1406,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
@@ -1409,106 +1438,106 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="U1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="V1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="W1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="X1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="Y1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Z1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="AA1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AB1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AC1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AD1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AE1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AF1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AG1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AH1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AI1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AK1" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="AK1" s="17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="17" x14ac:dyDescent="0.2">
@@ -1516,32 +1545,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="2" t="str">
+        <v>58</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="str">
         <f>IF(C2&lt;&gt;"",VLOOKUP(C2,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v>Account Mgr</v>
       </c>
-      <c r="E2" s="2" cm="1">
-        <f t="array" ref="E2">IF(SUMPRODUCT((REF!$H$2:$H$50=D2)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D2)*(REF!$I$2:$I$50)), "")</f>
+      <c r="F2" s="2">
+        <f>IF(E2&lt;&gt;"",VLOOKUP(E2,REF!$H$2:$I$50,2,FALSE), "")</f>
         <v>200</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2</v>
       </c>
       <c r="G2" s="2">
         <f>IF(SUMIF($J2:$AK2,"&gt;0")&gt;0,SUMIF($J2:$AK2,"&gt;0"),"")</f>
         <v>1.25</v>
       </c>
       <c r="H2" s="2">
-        <f>IF(E2&lt;&gt;"",$F2*E2*5*8,"")</f>
+        <f>IF(F2&lt;&gt;"",$D2*F2*5*8,"")</f>
         <v>16000</v>
       </c>
       <c r="I2" s="2">
-        <f>IF($G2&lt;&gt;"",$G2*E2*5*8,"")</f>
+        <f>IF($G2&lt;&gt;"",$G2*F2*5*8,"")</f>
         <v>10000</v>
       </c>
       <c r="J2" s="34">
@@ -1602,32 +1631,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="2" t="str">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="str">
         <f>IF(C3&lt;&gt;"",VLOOKUP(C3,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v>Project Mgr</v>
       </c>
-      <c r="E3" s="2" cm="1">
-        <f t="array" ref="E3">IF(SUMPRODUCT((REF!$H$2:$H$50=D3)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D3)*(REF!$I$2:$I$50)), "")</f>
+      <c r="F3" s="2">
+        <f>IF(E3&lt;&gt;"",VLOOKUP(E3,REF!$H$2:$I$50,2,FALSE), "")</f>
         <v>150</v>
-      </c>
-      <c r="F3" s="2">
-        <v>4</v>
       </c>
       <c r="G3" s="2">
         <f>IF(SUMIF($J3:$AK3,"&gt;0")&gt;0,SUMIF($J3:$AK3,"&gt;0"),"")</f>
         <v>6.75</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H66" si="0">IF(E3&lt;&gt;"",$F3*E3*5*8,"")</f>
+        <f>IF(F3&lt;&gt;"",$D3*F3*5*8,"")</f>
         <v>24000</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I66" si="1">IF($G3&lt;&gt;"",$G3*E3*5*8,"")</f>
+        <f>IF($G3&lt;&gt;"",$G3*F3*5*8,"")</f>
         <v>40500</v>
       </c>
       <c r="J3" s="34">
@@ -1688,32 +1717,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="2" t="str">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="str">
         <f>IF(C4&lt;&gt;"",VLOOKUP(C4,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v>Technical Lead</v>
       </c>
-      <c r="E4" s="2" cm="1">
-        <f t="array" ref="E4">IF(SUMPRODUCT((REF!$H$2:$H$50=D4)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D4)*(REF!$I$2:$I$50)), "")</f>
+      <c r="F4" s="2">
+        <f>IF(E4&lt;&gt;"",VLOOKUP(E4,REF!$H$2:$I$50,2,FALSE), "")</f>
         <v>125</v>
       </c>
-      <c r="F4" s="2">
-        <v>3</v>
-      </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G67" si="2">IF(SUMIF($J4:$AK4,"&gt;0")&gt;0,SUMIF($J4:$AK4,"&gt;0"),"")</f>
+        <f t="shared" ref="G4:G67" si="0">IF(SUMIF($J4:$AK4,"&gt;0")&gt;0,SUMIF($J4:$AK4,"&gt;0"),"")</f>
         <v>2.5</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(F4&lt;&gt;"",$D4*F4*5*8,"")</f>
         <v>15000</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($G4&lt;&gt;"",$G4*F4*5*8,"")</f>
         <v>12500</v>
       </c>
       <c r="J4" s="34">
@@ -1758,32 +1787,32 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="2" t="str">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="str">
         <f>IF(C5&lt;&gt;"",VLOOKUP(C5,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v>Sr. Developer</v>
       </c>
-      <c r="E5" s="2" cm="1">
-        <f t="array" ref="E5">IF(SUMPRODUCT((REF!$H$2:$H$50=D5)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D5)*(REF!$I$2:$I$50)), "")</f>
+      <c r="F5" s="2">
+        <f>IF(E5&lt;&gt;"",VLOOKUP(E5,REF!$H$2:$I$50,2,FALSE), "")</f>
         <v>100</v>
       </c>
-      <c r="F5" s="2">
-        <v>4</v>
-      </c>
       <c r="G5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(F5&lt;&gt;"",$D5*F5*5*8,"")</f>
         <v>16000</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($G5&lt;&gt;"",$G5*F5*5*8,"")</f>
         <v>14000</v>
       </c>
       <c r="J5" s="34">
@@ -1828,32 +1857,32 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="2" t="str">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="str">
         <f>IF(C6&lt;&gt;"",VLOOKUP(C6,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v>Technical Lead</v>
       </c>
-      <c r="E6" s="2" cm="1">
-        <f t="array" ref="E6">IF(SUMPRODUCT((REF!$H$2:$H$50=D6)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D6)*(REF!$I$2:$I$50)), "")</f>
+      <c r="F6" s="2">
+        <f>IF(E6&lt;&gt;"",VLOOKUP(E6,REF!$H$2:$I$50,2,FALSE), "")</f>
         <v>125</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G6" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
       <c r="H6" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(F6&lt;&gt;"",$D6*F6*5*8,"")</f>
         <v>10000</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($G6&lt;&gt;"",$G6*F6*5*8,"")</f>
         <v>10000</v>
       </c>
       <c r="J6" s="34"/>
@@ -1896,32 +1925,32 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="2" t="str">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="str">
         <f>IF(C7&lt;&gt;"",VLOOKUP(C7,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v>Sr. Developer</v>
       </c>
-      <c r="E7" s="2" cm="1">
-        <f t="array" ref="E7">IF(SUMPRODUCT((REF!$H$2:$H$50=D7)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D7)*(REF!$I$2:$I$50)), "")</f>
+      <c r="F7" s="2">
+        <f>IF(E7&lt;&gt;"",VLOOKUP(E7,REF!$H$2:$I$50,2,FALSE), "")</f>
         <v>100</v>
       </c>
-      <c r="F7" s="2">
-        <v>3</v>
-      </c>
       <c r="G7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(F7&lt;&gt;"",$D7*F7*5*8,"")</f>
         <v>12000</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($G7&lt;&gt;"",$G7*F7*5*8,"")</f>
         <v>10000</v>
       </c>
       <c r="J7" s="34"/>
@@ -1964,32 +1993,32 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="2" t="str">
+        <v>62</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="str">
         <f>IF(C8&lt;&gt;"",VLOOKUP(C8,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v>Technical Lead</v>
       </c>
-      <c r="E8" s="2" cm="1">
-        <f t="array" ref="E8">IF(SUMPRODUCT((REF!$H$2:$H$50=D8)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D8)*(REF!$I$2:$I$50)), "")</f>
+      <c r="F8" s="2">
+        <f>IF(E8&lt;&gt;"",VLOOKUP(E8,REF!$H$2:$I$50,2,FALSE), "")</f>
         <v>125</v>
       </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
       <c r="G8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(F8&lt;&gt;"",$D8*F8*5*8,"")</f>
         <v>5000</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($G8&lt;&gt;"",$G8*F8*5*8,"")</f>
         <v>8750</v>
       </c>
       <c r="J8" s="34"/>
@@ -2034,32 +2063,32 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="2" t="str">
+        <v>64</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="str">
         <f>IF(C9&lt;&gt;"",VLOOKUP(C9,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v>Developer</v>
       </c>
-      <c r="E9" s="2" cm="1">
-        <f t="array" ref="E9">IF(SUMPRODUCT((REF!$H$2:$H$50=D9)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D9)*(REF!$I$2:$I$50)), "")</f>
+      <c r="F9" s="2">
+        <f>IF(E9&lt;&gt;"",VLOOKUP(E9,REF!$H$2:$I$50,2,FALSE), "")</f>
         <v>75</v>
       </c>
-      <c r="F9" s="2">
-        <v>2</v>
-      </c>
       <c r="G9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(F9&lt;&gt;"",$D9*F9*5*8,"")</f>
         <v>6000</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($G9&lt;&gt;"",$G9*F9*5*8,"")</f>
         <v>12000</v>
       </c>
       <c r="J9" s="34"/>
@@ -2104,32 +2133,32 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="2" t="str">
+        <v>63</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="str">
         <f>IF(C10&lt;&gt;"",VLOOKUP(C10,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v>Sr. Developer</v>
       </c>
-      <c r="E10" s="2" cm="1">
-        <f t="array" ref="E10">IF(SUMPRODUCT((REF!$H$2:$H$50=D10)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D10)*(REF!$I$2:$I$50)), "")</f>
+      <c r="F10" s="2">
+        <f>IF(E10&lt;&gt;"",VLOOKUP(E10,REF!$H$2:$I$50,2,FALSE), "")</f>
         <v>100</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G10" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
       <c r="H10" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(F10&lt;&gt;"",$D10*F10*5*8,"")</f>
         <v>8000</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($G10&lt;&gt;"",$G10*F10*5*8,"")</f>
         <v>8000</v>
       </c>
       <c r="J10" s="34"/>
@@ -2170,32 +2199,32 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="2" t="str">
+        <v>65</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="str">
         <f>IF(C11&lt;&gt;"",VLOOKUP(C11,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v>Developer</v>
       </c>
-      <c r="E11" s="2" cm="1">
-        <f t="array" ref="E11">IF(SUMPRODUCT((REF!$H$2:$H$50=D11)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D11)*(REF!$I$2:$I$50)), "")</f>
+      <c r="F11" s="2">
+        <f>IF(E11&lt;&gt;"",VLOOKUP(E11,REF!$H$2:$I$50,2,FALSE), "")</f>
         <v>75</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G11" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
       <c r="H11" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(F11&lt;&gt;"",$D11*F11*5*8,"")</f>
         <v>6000</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($G11&lt;&gt;"",$G11*F11*5*8,"")</f>
         <v>6000</v>
       </c>
       <c r="J11" s="34"/>
@@ -2236,40 +2265,40 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="2" t="str">
+        <v>62</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="str">
         <f>IF(C12&lt;&gt;"",VLOOKUP(C12,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v>Technical Lead</v>
       </c>
-      <c r="E12" s="2" cm="1">
-        <f t="array" ref="E12">IF(SUMPRODUCT((REF!$H$2:$H$50=D12)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D12)*(REF!$I$2:$I$50)), "")</f>
+      <c r="F12" s="2">
+        <f>IF(E12&lt;&gt;"",VLOOKUP(E12,REF!$H$2:$I$50,2,FALSE), "")</f>
         <v>125</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G12" s="2">
-        <f t="shared" si="2"/>
-        <v>2.75</v>
-      </c>
       <c r="H12" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(F12&lt;&gt;"",$D12*F12*5*8,"")</f>
         <v>15000</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="1"/>
-        <v>13750</v>
+        <f>IF($G12&lt;&gt;"",$G12*F12*5*8,"")</f>
+        <v>15000</v>
       </c>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
       <c r="N12" s="34">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O12" s="34">
         <v>0.5</v>
@@ -2310,32 +2339,32 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="2" t="str">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="str">
         <f>IF(C13&lt;&gt;"",VLOOKUP(C13,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v>Developer</v>
       </c>
-      <c r="E13" s="2" cm="1">
-        <f t="array" ref="E13">IF(SUMPRODUCT((REF!$H$2:$H$50=D13)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D13)*(REF!$I$2:$I$50)), "")</f>
+      <c r="F13" s="2">
+        <f>IF(E13&lt;&gt;"",VLOOKUP(E13,REF!$H$2:$I$50,2,FALSE), "")</f>
         <v>75</v>
       </c>
-      <c r="F13" s="2">
-        <v>7</v>
-      </c>
       <c r="G13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(F13&lt;&gt;"",$D13*F13*5*8,"")</f>
         <v>21000</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($G13&lt;&gt;"",$G13*F13*5*8,"")</f>
         <v>18000</v>
       </c>
       <c r="J13" s="34"/>
@@ -2384,32 +2413,32 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="2" t="str">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="str">
         <f>IF(C14&lt;&gt;"",VLOOKUP(C14,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v>Developer</v>
       </c>
-      <c r="E14" s="2" cm="1">
-        <f t="array" ref="E14">IF(SUMPRODUCT((REF!$H$2:$H$50=D14)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D14)*(REF!$I$2:$I$50)), "")</f>
+      <c r="F14" s="2">
+        <f>IF(E14&lt;&gt;"",VLOOKUP(E14,REF!$H$2:$I$50,2,FALSE), "")</f>
         <v>75</v>
       </c>
-      <c r="F14" s="2">
-        <v>3</v>
-      </c>
       <c r="G14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(F14&lt;&gt;"",$D14*F14*5*8,"")</f>
         <v>9000</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($G14&lt;&gt;"",$G14*F14*5*8,"")</f>
         <v>12000</v>
       </c>
       <c r="J14" s="34"/>
@@ -2454,32 +2483,32 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="2" t="str">
+        <v>64</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="str">
         <f>IF(C15&lt;&gt;"",VLOOKUP(C15,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v>Developer</v>
       </c>
-      <c r="E15" s="2" cm="1">
-        <f t="array" ref="E15">IF(SUMPRODUCT((REF!$H$2:$H$50=D15)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D15)*(REF!$I$2:$I$50)), "")</f>
+      <c r="F15" s="2">
+        <f>IF(E15&lt;&gt;"",VLOOKUP(E15,REF!$H$2:$I$50,2,FALSE), "")</f>
         <v>75</v>
       </c>
-      <c r="F15" s="2">
-        <v>4</v>
-      </c>
       <c r="G15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(F15&lt;&gt;"",$D15*F15*5*8,"")</f>
         <v>12000</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($G15&lt;&gt;"",$G15*F15*5*8,"")</f>
         <v>6000</v>
       </c>
       <c r="J15" s="34"/>
@@ -2520,32 +2549,32 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="2" t="str">
+        <v>63</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="str">
         <f>IF(C16&lt;&gt;"",VLOOKUP(C16,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v>Sr. Developer</v>
       </c>
-      <c r="E16" s="2" cm="1">
-        <f t="array" ref="E16">IF(SUMPRODUCT((REF!$H$2:$H$50=D16)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D16)*(REF!$I$2:$I$50)), "")</f>
+      <c r="F16" s="2">
+        <f>IF(E16&lt;&gt;"",VLOOKUP(E16,REF!$H$2:$I$50,2,FALSE), "")</f>
         <v>100</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G16" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
       <c r="H16" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(F16&lt;&gt;"",$D16*F16*5*8,"")</f>
         <v>8000</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($G16&lt;&gt;"",$G16*F16*5*8,"")</f>
         <v>8000</v>
       </c>
       <c r="J16" s="34"/>
@@ -2586,32 +2615,32 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="2" t="str">
+        <v>62</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="str">
         <f>IF(C17&lt;&gt;"",VLOOKUP(C17,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v>Technical Lead</v>
       </c>
-      <c r="E17" s="2" cm="1">
-        <f t="array" ref="E17">IF(SUMPRODUCT((REF!$H$2:$H$50=D17)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D17)*(REF!$I$2:$I$50)), "")</f>
+      <c r="F17" s="2">
+        <f>IF(E17&lt;&gt;"",VLOOKUP(E17,REF!$H$2:$I$50,2,FALSE), "")</f>
         <v>125</v>
       </c>
-      <c r="F17" s="2">
-        <v>2</v>
-      </c>
       <c r="G17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(F17&lt;&gt;"",$D17*F17*5*8,"")</f>
         <v>10000</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($G17&lt;&gt;"",$G17*F17*5*8,"")</f>
         <v>5000</v>
       </c>
       <c r="J17" s="34"/>
@@ -2652,32 +2681,32 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="2" t="str">
+        <v>63</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="str">
         <f>IF(C18&lt;&gt;"",VLOOKUP(C18,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v>Sr. Developer</v>
       </c>
-      <c r="E18" s="2" cm="1">
-        <f t="array" ref="E18">IF(SUMPRODUCT((REF!$H$2:$H$50=D18)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D18)*(REF!$I$2:$I$50)), "")</f>
+      <c r="F18" s="2">
+        <f>IF(E18&lt;&gt;"",VLOOKUP(E18,REF!$H$2:$I$50,2,FALSE), "")</f>
         <v>100</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G18" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
       <c r="H18" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(F18&lt;&gt;"",$D18*F18*5*8,"")</f>
         <v>8000</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($G18&lt;&gt;"",$G18*F18*5*8,"")</f>
         <v>8000</v>
       </c>
       <c r="J18" s="34"/>
@@ -2718,32 +2747,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="2" t="str">
+        <v>64</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="str">
         <f>IF(C19&lt;&gt;"",VLOOKUP(C19,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v>Developer</v>
       </c>
-      <c r="E19" s="2" cm="1">
-        <f t="array" ref="E19">IF(SUMPRODUCT((REF!$H$2:$H$50=D19)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D19)*(REF!$I$2:$I$50)), "")</f>
+      <c r="F19" s="2">
+        <f>IF(E19&lt;&gt;"",VLOOKUP(E19,REF!$H$2:$I$50,2,FALSE), "")</f>
         <v>75</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G19" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
       <c r="H19" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(F19&lt;&gt;"",$D19*F19*5*8,"")</f>
         <v>6000</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($G19&lt;&gt;"",$G19*F19*5*8,"")</f>
         <v>6000</v>
       </c>
       <c r="J19" s="34"/>
@@ -2781,29 +2810,29 @@
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2" t="str">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="str">
         <f>IF(C20&lt;&gt;"",VLOOKUP(C20,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E20" s="2" t="str" cm="1">
-        <f t="array" ref="E20">IF(SUMPRODUCT((REF!$H$2:$H$50=D20)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D20)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="str">
+        <f>IF(E20&lt;&gt;"",VLOOKUP(E20,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G20" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H20" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F20&lt;&gt;"",$D20*F20*5*8,"")</f>
         <v/>
       </c>
       <c r="I20" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G20&lt;&gt;"",$G20*F20*5*8,"")</f>
         <v/>
       </c>
       <c r="J20" s="34"/>
@@ -2839,25 +2868,25 @@
       <c r="A21" s="32"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2" t="str">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="str">
         <f>IF(C21&lt;&gt;"",VLOOKUP(C21,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E21" s="2" t="str" cm="1">
-        <f t="array" ref="E21">IF(SUMPRODUCT((REF!$H$2:$H$50=D21)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D21)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="str">
+        <f>IF(E21&lt;&gt;"",VLOOKUP(E21,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H21" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F21&lt;&gt;"",$D21*F21*5*8,"")</f>
         <v/>
       </c>
       <c r="I21" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G21&lt;&gt;"",$G21*F21*5*8,"")</f>
         <v/>
       </c>
       <c r="J21" s="34"/>
@@ -2893,25 +2922,25 @@
       <c r="A22" s="32"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2" t="str">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="str">
         <f>IF(C22&lt;&gt;"",VLOOKUP(C22,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E22" s="2" t="str" cm="1">
-        <f t="array" ref="E22">IF(SUMPRODUCT((REF!$H$2:$H$50=D22)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D22)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="str">
+        <f>IF(E22&lt;&gt;"",VLOOKUP(E22,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G22" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F22&lt;&gt;"",$D22*F22*5*8,"")</f>
         <v/>
       </c>
       <c r="I22" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G22&lt;&gt;"",$G22*F22*5*8,"")</f>
         <v/>
       </c>
       <c r="J22" s="34"/>
@@ -2947,25 +2976,25 @@
       <c r="A23" s="32"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2" t="str">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="str">
         <f>IF(C23&lt;&gt;"",VLOOKUP(C23,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E23" s="2" t="str" cm="1">
-        <f t="array" ref="E23">IF(SUMPRODUCT((REF!$H$2:$H$50=D23)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D23)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="str">
+        <f>IF(E23&lt;&gt;"",VLOOKUP(E23,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G23" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F23&lt;&gt;"",$D23*F23*5*8,"")</f>
         <v/>
       </c>
       <c r="I23" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G23&lt;&gt;"",$G23*F23*5*8,"")</f>
         <v/>
       </c>
       <c r="J23" s="34"/>
@@ -3001,25 +3030,25 @@
       <c r="A24" s="32"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2" t="str">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="str">
         <f>IF(C24&lt;&gt;"",VLOOKUP(C24,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E24" s="2" t="str" cm="1">
-        <f t="array" ref="E24">IF(SUMPRODUCT((REF!$H$2:$H$50=D24)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D24)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="str">
+        <f>IF(E24&lt;&gt;"",VLOOKUP(E24,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G24" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F24&lt;&gt;"",$D24*F24*5*8,"")</f>
         <v/>
       </c>
       <c r="I24" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G24&lt;&gt;"",$G24*F24*5*8,"")</f>
         <v/>
       </c>
       <c r="J24" s="34"/>
@@ -3055,25 +3084,25 @@
       <c r="A25" s="32"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2" t="str">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="str">
         <f>IF(C25&lt;&gt;"",VLOOKUP(C25,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E25" s="2" t="str" cm="1">
-        <f t="array" ref="E25">IF(SUMPRODUCT((REF!$H$2:$H$50=D25)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D25)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="str">
+        <f>IF(E25&lt;&gt;"",VLOOKUP(E25,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G25" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H25" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F25&lt;&gt;"",$D25*F25*5*8,"")</f>
         <v/>
       </c>
       <c r="I25" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G25&lt;&gt;"",$G25*F25*5*8,"")</f>
         <v/>
       </c>
       <c r="J25" s="34"/>
@@ -3109,25 +3138,25 @@
       <c r="A26" s="32"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2" t="str">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="str">
         <f>IF(C26&lt;&gt;"",VLOOKUP(C26,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E26" s="2" t="str" cm="1">
-        <f t="array" ref="E26">IF(SUMPRODUCT((REF!$H$2:$H$50=D26)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D26)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="str">
+        <f>IF(E26&lt;&gt;"",VLOOKUP(E26,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G26" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H26" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F26&lt;&gt;"",$D26*F26*5*8,"")</f>
         <v/>
       </c>
       <c r="I26" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G26&lt;&gt;"",$G26*F26*5*8,"")</f>
         <v/>
       </c>
       <c r="J26" s="34"/>
@@ -3163,25 +3192,25 @@
       <c r="A27" s="32"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2" t="str">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="str">
         <f>IF(C27&lt;&gt;"",VLOOKUP(C27,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E27" s="2" t="str" cm="1">
-        <f t="array" ref="E27">IF(SUMPRODUCT((REF!$H$2:$H$50=D27)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D27)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="str">
+        <f>IF(E27&lt;&gt;"",VLOOKUP(E27,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G27" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F27&lt;&gt;"",$D27*F27*5*8,"")</f>
         <v/>
       </c>
       <c r="I27" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G27&lt;&gt;"",$G27*F27*5*8,"")</f>
         <v/>
       </c>
       <c r="J27" s="34"/>
@@ -3217,25 +3246,25 @@
       <c r="A28" s="32"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2" t="str">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="str">
         <f>IF(C28&lt;&gt;"",VLOOKUP(C28,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E28" s="2" t="str" cm="1">
-        <f t="array" ref="E28">IF(SUMPRODUCT((REF!$H$2:$H$50=D28)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D28)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="str">
+        <f>IF(E28&lt;&gt;"",VLOOKUP(E28,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G28" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F28&lt;&gt;"",$D28*F28*5*8,"")</f>
         <v/>
       </c>
       <c r="I28" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G28&lt;&gt;"",$G28*F28*5*8,"")</f>
         <v/>
       </c>
       <c r="J28" s="34"/>
@@ -3271,25 +3300,25 @@
       <c r="A29" s="32"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2" t="str">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="str">
         <f>IF(C29&lt;&gt;"",VLOOKUP(C29,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E29" s="2" t="str" cm="1">
-        <f t="array" ref="E29">IF(SUMPRODUCT((REF!$H$2:$H$50=D29)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D29)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2" t="str">
+        <f>IF(E29&lt;&gt;"",VLOOKUP(E29,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G29" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F29&lt;&gt;"",$D29*F29*5*8,"")</f>
         <v/>
       </c>
       <c r="I29" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G29&lt;&gt;"",$G29*F29*5*8,"")</f>
         <v/>
       </c>
       <c r="J29" s="34"/>
@@ -3325,25 +3354,25 @@
       <c r="A30" s="32"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2" t="str">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="str">
         <f>IF(C30&lt;&gt;"",VLOOKUP(C30,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E30" s="2" t="str" cm="1">
-        <f t="array" ref="E30">IF(SUMPRODUCT((REF!$H$2:$H$50=D30)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D30)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="str">
+        <f>IF(E30&lt;&gt;"",VLOOKUP(E30,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G30" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F30&lt;&gt;"",$D30*F30*5*8,"")</f>
         <v/>
       </c>
       <c r="I30" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G30&lt;&gt;"",$G30*F30*5*8,"")</f>
         <v/>
       </c>
       <c r="J30" s="34"/>
@@ -3379,25 +3408,25 @@
       <c r="A31" s="32"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2" t="str">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="str">
         <f>IF(C31&lt;&gt;"",VLOOKUP(C31,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E31" s="2" t="str" cm="1">
-        <f t="array" ref="E31">IF(SUMPRODUCT((REF!$H$2:$H$50=D31)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D31)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="str">
+        <f>IF(E31&lt;&gt;"",VLOOKUP(E31,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G31" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F31&lt;&gt;"",$D31*F31*5*8,"")</f>
         <v/>
       </c>
       <c r="I31" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G31&lt;&gt;"",$G31*F31*5*8,"")</f>
         <v/>
       </c>
       <c r="J31" s="34"/>
@@ -3433,25 +3462,25 @@
       <c r="A32" s="32"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2" t="str">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="str">
         <f>IF(C32&lt;&gt;"",VLOOKUP(C32,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E32" s="2" t="str" cm="1">
-        <f t="array" ref="E32">IF(SUMPRODUCT((REF!$H$2:$H$50=D32)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D32)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="str">
+        <f>IF(E32&lt;&gt;"",VLOOKUP(E32,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G32" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F32&lt;&gt;"",$D32*F32*5*8,"")</f>
         <v/>
       </c>
       <c r="I32" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G32&lt;&gt;"",$G32*F32*5*8,"")</f>
         <v/>
       </c>
       <c r="J32" s="34"/>
@@ -3487,25 +3516,25 @@
       <c r="A33" s="32"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2" t="str">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="str">
         <f>IF(C33&lt;&gt;"",VLOOKUP(C33,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E33" s="2" t="str" cm="1">
-        <f t="array" ref="E33">IF(SUMPRODUCT((REF!$H$2:$H$50=D33)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D33)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="str">
+        <f>IF(E33&lt;&gt;"",VLOOKUP(E33,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G33" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H33" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F33&lt;&gt;"",$D33*F33*5*8,"")</f>
         <v/>
       </c>
       <c r="I33" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G33&lt;&gt;"",$G33*F33*5*8,"")</f>
         <v/>
       </c>
       <c r="J33" s="34"/>
@@ -3541,25 +3570,25 @@
       <c r="A34" s="32"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="2" t="str">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="str">
         <f>IF(C34&lt;&gt;"",VLOOKUP(C34,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E34" s="2" t="str" cm="1">
-        <f t="array" ref="E34">IF(SUMPRODUCT((REF!$H$2:$H$50=D34)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D34)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="str">
+        <f>IF(E34&lt;&gt;"",VLOOKUP(E34,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G34" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H34" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F34&lt;&gt;"",$D34*F34*5*8,"")</f>
         <v/>
       </c>
       <c r="I34" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G34&lt;&gt;"",$G34*F34*5*8,"")</f>
         <v/>
       </c>
       <c r="J34" s="34"/>
@@ -3595,25 +3624,25 @@
       <c r="A35" s="32"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2" t="str">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="str">
         <f>IF(C35&lt;&gt;"",VLOOKUP(C35,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E35" s="2" t="str" cm="1">
-        <f t="array" ref="E35">IF(SUMPRODUCT((REF!$H$2:$H$50=D35)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D35)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2" t="str">
+        <f>IF(E35&lt;&gt;"",VLOOKUP(E35,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G35" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H35" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F35&lt;&gt;"",$D35*F35*5*8,"")</f>
         <v/>
       </c>
       <c r="I35" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G35&lt;&gt;"",$G35*F35*5*8,"")</f>
         <v/>
       </c>
       <c r="J35" s="34"/>
@@ -3649,25 +3678,25 @@
       <c r="A36" s="32"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2" t="str">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="str">
         <f>IF(C36&lt;&gt;"",VLOOKUP(C36,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E36" s="2" t="str" cm="1">
-        <f t="array" ref="E36">IF(SUMPRODUCT((REF!$H$2:$H$50=D36)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D36)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="str">
+        <f>IF(E36&lt;&gt;"",VLOOKUP(E36,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G36" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H36" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F36&lt;&gt;"",$D36*F36*5*8,"")</f>
         <v/>
       </c>
       <c r="I36" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G36&lt;&gt;"",$G36*F36*5*8,"")</f>
         <v/>
       </c>
       <c r="J36" s="34"/>
@@ -3703,25 +3732,25 @@
       <c r="A37" s="32"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="2" t="str">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="str">
         <f>IF(C37&lt;&gt;"",VLOOKUP(C37,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E37" s="2" t="str" cm="1">
-        <f t="array" ref="E37">IF(SUMPRODUCT((REF!$H$2:$H$50=D37)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D37)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2" t="str">
+        <f>IF(E37&lt;&gt;"",VLOOKUP(E37,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G37" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H37" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F37&lt;&gt;"",$D37*F37*5*8,"")</f>
         <v/>
       </c>
       <c r="I37" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G37&lt;&gt;"",$G37*F37*5*8,"")</f>
         <v/>
       </c>
       <c r="J37" s="34"/>
@@ -3757,25 +3786,25 @@
       <c r="A38" s="32"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="2" t="str">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="str">
         <f>IF(C38&lt;&gt;"",VLOOKUP(C38,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E38" s="2" t="str" cm="1">
-        <f t="array" ref="E38">IF(SUMPRODUCT((REF!$H$2:$H$50=D38)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D38)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="str">
+        <f>IF(E38&lt;&gt;"",VLOOKUP(E38,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G38" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H38" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F38&lt;&gt;"",$D38*F38*5*8,"")</f>
         <v/>
       </c>
       <c r="I38" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G38&lt;&gt;"",$G38*F38*5*8,"")</f>
         <v/>
       </c>
       <c r="J38" s="34"/>
@@ -3811,25 +3840,25 @@
       <c r="A39" s="32"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2" t="str">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="str">
         <f>IF(C39&lt;&gt;"",VLOOKUP(C39,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E39" s="2" t="str" cm="1">
-        <f t="array" ref="E39">IF(SUMPRODUCT((REF!$H$2:$H$50=D39)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D39)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2" t="str">
+        <f>IF(E39&lt;&gt;"",VLOOKUP(E39,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G39" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H39" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F39&lt;&gt;"",$D39*F39*5*8,"")</f>
         <v/>
       </c>
       <c r="I39" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G39&lt;&gt;"",$G39*F39*5*8,"")</f>
         <v/>
       </c>
       <c r="J39" s="34"/>
@@ -3865,25 +3894,25 @@
       <c r="A40" s="32"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="2" t="str">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="str">
         <f>IF(C40&lt;&gt;"",VLOOKUP(C40,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E40" s="2" t="str" cm="1">
-        <f t="array" ref="E40">IF(SUMPRODUCT((REF!$H$2:$H$50=D40)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D40)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2" t="str">
+        <f>IF(E40&lt;&gt;"",VLOOKUP(E40,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G40" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H40" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F40&lt;&gt;"",$D40*F40*5*8,"")</f>
         <v/>
       </c>
       <c r="I40" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G40&lt;&gt;"",$G40*F40*5*8,"")</f>
         <v/>
       </c>
       <c r="J40" s="34"/>
@@ -3919,25 +3948,25 @@
       <c r="A41" s="32"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="2" t="str">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="str">
         <f>IF(C41&lt;&gt;"",VLOOKUP(C41,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E41" s="2" t="str" cm="1">
-        <f t="array" ref="E41">IF(SUMPRODUCT((REF!$H$2:$H$50=D41)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D41)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2" t="str">
+        <f>IF(E41&lt;&gt;"",VLOOKUP(E41,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G41" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H41" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F41&lt;&gt;"",$D41*F41*5*8,"")</f>
         <v/>
       </c>
       <c r="I41" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G41&lt;&gt;"",$G41*F41*5*8,"")</f>
         <v/>
       </c>
       <c r="J41" s="34"/>
@@ -3973,25 +4002,25 @@
       <c r="A42" s="32"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="2" t="str">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="str">
         <f>IF(C42&lt;&gt;"",VLOOKUP(C42,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E42" s="2" t="str" cm="1">
-        <f t="array" ref="E42">IF(SUMPRODUCT((REF!$H$2:$H$50=D42)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D42)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F42" s="2"/>
+      <c r="F42" s="2" t="str">
+        <f>IF(E42&lt;&gt;"",VLOOKUP(E42,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G42" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H42" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F42&lt;&gt;"",$D42*F42*5*8,"")</f>
         <v/>
       </c>
       <c r="I42" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G42&lt;&gt;"",$G42*F42*5*8,"")</f>
         <v/>
       </c>
       <c r="J42" s="34"/>
@@ -4027,25 +4056,25 @@
       <c r="A43" s="32"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="2" t="str">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="str">
         <f>IF(C43&lt;&gt;"",VLOOKUP(C43,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E43" s="2" t="str" cm="1">
-        <f t="array" ref="E43">IF(SUMPRODUCT((REF!$H$2:$H$50=D43)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D43)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F43" s="2"/>
+      <c r="F43" s="2" t="str">
+        <f>IF(E43&lt;&gt;"",VLOOKUP(E43,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G43" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H43" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F43&lt;&gt;"",$D43*F43*5*8,"")</f>
         <v/>
       </c>
       <c r="I43" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G43&lt;&gt;"",$G43*F43*5*8,"")</f>
         <v/>
       </c>
       <c r="J43" s="34"/>
@@ -4081,25 +4110,25 @@
       <c r="A44" s="32"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2" t="str">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="str">
         <f>IF(C44&lt;&gt;"",VLOOKUP(C44,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E44" s="2" t="str" cm="1">
-        <f t="array" ref="E44">IF(SUMPRODUCT((REF!$H$2:$H$50=D44)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D44)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2" t="str">
+        <f>IF(E44&lt;&gt;"",VLOOKUP(E44,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G44" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H44" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F44&lt;&gt;"",$D44*F44*5*8,"")</f>
         <v/>
       </c>
       <c r="I44" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G44&lt;&gt;"",$G44*F44*5*8,"")</f>
         <v/>
       </c>
       <c r="J44" s="34"/>
@@ -4135,25 +4164,25 @@
       <c r="A45" s="32"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="2" t="str">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="str">
         <f>IF(C45&lt;&gt;"",VLOOKUP(C45,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E45" s="2" t="str" cm="1">
-        <f t="array" ref="E45">IF(SUMPRODUCT((REF!$H$2:$H$50=D45)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D45)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2" t="str">
+        <f>IF(E45&lt;&gt;"",VLOOKUP(E45,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G45" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H45" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F45&lt;&gt;"",$D45*F45*5*8,"")</f>
         <v/>
       </c>
       <c r="I45" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G45&lt;&gt;"",$G45*F45*5*8,"")</f>
         <v/>
       </c>
       <c r="J45" s="34"/>
@@ -4189,25 +4218,25 @@
       <c r="A46" s="32"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="2" t="str">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="str">
         <f>IF(C46&lt;&gt;"",VLOOKUP(C46,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E46" s="2" t="str" cm="1">
-        <f t="array" ref="E46">IF(SUMPRODUCT((REF!$H$2:$H$50=D46)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D46)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F46" s="2"/>
+      <c r="F46" s="2" t="str">
+        <f>IF(E46&lt;&gt;"",VLOOKUP(E46,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G46" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H46" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F46&lt;&gt;"",$D46*F46*5*8,"")</f>
         <v/>
       </c>
       <c r="I46" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G46&lt;&gt;"",$G46*F46*5*8,"")</f>
         <v/>
       </c>
       <c r="J46" s="34"/>
@@ -4243,25 +4272,25 @@
       <c r="A47" s="32"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="2" t="str">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="str">
         <f>IF(C47&lt;&gt;"",VLOOKUP(C47,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E47" s="2" t="str" cm="1">
-        <f t="array" ref="E47">IF(SUMPRODUCT((REF!$H$2:$H$50=D47)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D47)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F47" s="2"/>
+      <c r="F47" s="2" t="str">
+        <f>IF(E47&lt;&gt;"",VLOOKUP(E47,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G47" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H47" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F47&lt;&gt;"",$D47*F47*5*8,"")</f>
         <v/>
       </c>
       <c r="I47" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G47&lt;&gt;"",$G47*F47*5*8,"")</f>
         <v/>
       </c>
       <c r="J47" s="34"/>
@@ -4297,25 +4326,25 @@
       <c r="A48" s="32"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="2" t="str">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="str">
         <f>IF(C48&lt;&gt;"",VLOOKUP(C48,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E48" s="2" t="str" cm="1">
-        <f t="array" ref="E48">IF(SUMPRODUCT((REF!$H$2:$H$50=D48)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D48)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F48" s="2"/>
+      <c r="F48" s="2" t="str">
+        <f>IF(E48&lt;&gt;"",VLOOKUP(E48,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G48" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H48" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F48&lt;&gt;"",$D48*F48*5*8,"")</f>
         <v/>
       </c>
       <c r="I48" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G48&lt;&gt;"",$G48*F48*5*8,"")</f>
         <v/>
       </c>
       <c r="J48" s="34"/>
@@ -4351,25 +4380,25 @@
       <c r="A49" s="32"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="2" t="str">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="str">
         <f>IF(C49&lt;&gt;"",VLOOKUP(C49,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E49" s="2" t="str" cm="1">
-        <f t="array" ref="E49">IF(SUMPRODUCT((REF!$H$2:$H$50=D49)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D49)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F49" s="2"/>
+      <c r="F49" s="2" t="str">
+        <f>IF(E49&lt;&gt;"",VLOOKUP(E49,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G49" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H49" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F49&lt;&gt;"",$D49*F49*5*8,"")</f>
         <v/>
       </c>
       <c r="I49" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G49&lt;&gt;"",$G49*F49*5*8,"")</f>
         <v/>
       </c>
       <c r="J49" s="34"/>
@@ -4405,25 +4434,25 @@
       <c r="A50" s="32"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="2" t="str">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="str">
         <f>IF(C50&lt;&gt;"",VLOOKUP(C50,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E50" s="2" t="str" cm="1">
-        <f t="array" ref="E50">IF(SUMPRODUCT((REF!$H$2:$H$50=D50)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D50)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2" t="str">
+        <f>IF(E50&lt;&gt;"",VLOOKUP(E50,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G50" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H50" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F50&lt;&gt;"",$D50*F50*5*8,"")</f>
         <v/>
       </c>
       <c r="I50" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G50&lt;&gt;"",$G50*F50*5*8,"")</f>
         <v/>
       </c>
       <c r="J50" s="34"/>
@@ -4459,25 +4488,25 @@
       <c r="A51" s="32"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="2" t="str">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="str">
         <f>IF(C51&lt;&gt;"",VLOOKUP(C51,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E51" s="2" t="str" cm="1">
-        <f t="array" ref="E51">IF(SUMPRODUCT((REF!$H$2:$H$50=D51)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D51)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F51" s="2"/>
+      <c r="F51" s="2" t="str">
+        <f>IF(E51&lt;&gt;"",VLOOKUP(E51,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G51" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H51" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F51&lt;&gt;"",$D51*F51*5*8,"")</f>
         <v/>
       </c>
       <c r="I51" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G51&lt;&gt;"",$G51*F51*5*8,"")</f>
         <v/>
       </c>
       <c r="J51" s="34"/>
@@ -4513,25 +4542,25 @@
       <c r="A52" s="32"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="2" t="str">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2" t="str">
         <f>IF(C52&lt;&gt;"",VLOOKUP(C52,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E52" s="2" t="str" cm="1">
-        <f t="array" ref="E52">IF(SUMPRODUCT((REF!$H$2:$H$50=D52)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D52)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2" t="str">
+        <f>IF(E52&lt;&gt;"",VLOOKUP(E52,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G52" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H52" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F52&lt;&gt;"",$D52*F52*5*8,"")</f>
         <v/>
       </c>
       <c r="I52" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G52&lt;&gt;"",$G52*F52*5*8,"")</f>
         <v/>
       </c>
       <c r="J52" s="34"/>
@@ -4567,25 +4596,25 @@
       <c r="A53" s="32"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="2" t="str">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="str">
         <f>IF(C53&lt;&gt;"",VLOOKUP(C53,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E53" s="2" t="str" cm="1">
-        <f t="array" ref="E53">IF(SUMPRODUCT((REF!$H$2:$H$50=D53)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D53)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F53" s="2"/>
+      <c r="F53" s="2" t="str">
+        <f>IF(E53&lt;&gt;"",VLOOKUP(E53,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G53" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H53" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F53&lt;&gt;"",$D53*F53*5*8,"")</f>
         <v/>
       </c>
       <c r="I53" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G53&lt;&gt;"",$G53*F53*5*8,"")</f>
         <v/>
       </c>
       <c r="J53" s="34"/>
@@ -4621,25 +4650,25 @@
       <c r="A54" s="32"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="2" t="str">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="str">
         <f>IF(C54&lt;&gt;"",VLOOKUP(C54,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E54" s="2" t="str" cm="1">
-        <f t="array" ref="E54">IF(SUMPRODUCT((REF!$H$2:$H$50=D54)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D54)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F54" s="2"/>
+      <c r="F54" s="2" t="str">
+        <f>IF(E54&lt;&gt;"",VLOOKUP(E54,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G54" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H54" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F54&lt;&gt;"",$D54*F54*5*8,"")</f>
         <v/>
       </c>
       <c r="I54" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G54&lt;&gt;"",$G54*F54*5*8,"")</f>
         <v/>
       </c>
       <c r="J54" s="34"/>
@@ -4675,25 +4704,25 @@
       <c r="A55" s="32"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="2" t="str">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2" t="str">
         <f>IF(C55&lt;&gt;"",VLOOKUP(C55,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E55" s="2" t="str" cm="1">
-        <f t="array" ref="E55">IF(SUMPRODUCT((REF!$H$2:$H$50=D55)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D55)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F55" s="2"/>
+      <c r="F55" s="2" t="str">
+        <f>IF(E55&lt;&gt;"",VLOOKUP(E55,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G55" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H55" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F55&lt;&gt;"",$D55*F55*5*8,"")</f>
         <v/>
       </c>
       <c r="I55" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G55&lt;&gt;"",$G55*F55*5*8,"")</f>
         <v/>
       </c>
       <c r="J55" s="34"/>
@@ -4729,25 +4758,25 @@
       <c r="A56" s="32"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="2" t="str">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="str">
         <f>IF(C56&lt;&gt;"",VLOOKUP(C56,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E56" s="2" t="str" cm="1">
-        <f t="array" ref="E56">IF(SUMPRODUCT((REF!$H$2:$H$50=D56)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D56)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2" t="str">
+        <f>IF(E56&lt;&gt;"",VLOOKUP(E56,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G56" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H56" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F56&lt;&gt;"",$D56*F56*5*8,"")</f>
         <v/>
       </c>
       <c r="I56" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G56&lt;&gt;"",$G56*F56*5*8,"")</f>
         <v/>
       </c>
       <c r="J56" s="34"/>
@@ -4783,25 +4812,25 @@
       <c r="A57" s="32"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="2" t="str">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2" t="str">
         <f>IF(C57&lt;&gt;"",VLOOKUP(C57,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E57" s="2" t="str" cm="1">
-        <f t="array" ref="E57">IF(SUMPRODUCT((REF!$H$2:$H$50=D57)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D57)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F57" s="2"/>
+      <c r="F57" s="2" t="str">
+        <f>IF(E57&lt;&gt;"",VLOOKUP(E57,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G57" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H57" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F57&lt;&gt;"",$D57*F57*5*8,"")</f>
         <v/>
       </c>
       <c r="I57" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G57&lt;&gt;"",$G57*F57*5*8,"")</f>
         <v/>
       </c>
       <c r="J57" s="34"/>
@@ -4837,25 +4866,25 @@
       <c r="A58" s="32"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="2" t="str">
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="str">
         <f>IF(C58&lt;&gt;"",VLOOKUP(C58,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E58" s="2" t="str" cm="1">
-        <f t="array" ref="E58">IF(SUMPRODUCT((REF!$H$2:$H$50=D58)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D58)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F58" s="2"/>
+      <c r="F58" s="2" t="str">
+        <f>IF(E58&lt;&gt;"",VLOOKUP(E58,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G58" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H58" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F58&lt;&gt;"",$D58*F58*5*8,"")</f>
         <v/>
       </c>
       <c r="I58" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G58&lt;&gt;"",$G58*F58*5*8,"")</f>
         <v/>
       </c>
       <c r="J58" s="34"/>
@@ -4891,25 +4920,25 @@
       <c r="A59" s="32"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="2" t="str">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="str">
         <f>IF(C59&lt;&gt;"",VLOOKUP(C59,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E59" s="2" t="str" cm="1">
-        <f t="array" ref="E59">IF(SUMPRODUCT((REF!$H$2:$H$50=D59)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D59)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F59" s="2"/>
+      <c r="F59" s="2" t="str">
+        <f>IF(E59&lt;&gt;"",VLOOKUP(E59,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G59" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H59" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F59&lt;&gt;"",$D59*F59*5*8,"")</f>
         <v/>
       </c>
       <c r="I59" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G59&lt;&gt;"",$G59*F59*5*8,"")</f>
         <v/>
       </c>
       <c r="J59" s="34"/>
@@ -4945,25 +4974,25 @@
       <c r="A60" s="32"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="2" t="str">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="str">
         <f>IF(C60&lt;&gt;"",VLOOKUP(C60,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E60" s="2" t="str" cm="1">
-        <f t="array" ref="E60">IF(SUMPRODUCT((REF!$H$2:$H$50=D60)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D60)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F60" s="2"/>
+      <c r="F60" s="2" t="str">
+        <f>IF(E60&lt;&gt;"",VLOOKUP(E60,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G60" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H60" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F60&lt;&gt;"",$D60*F60*5*8,"")</f>
         <v/>
       </c>
       <c r="I60" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G60&lt;&gt;"",$G60*F60*5*8,"")</f>
         <v/>
       </c>
       <c r="J60" s="34"/>
@@ -4999,25 +5028,25 @@
       <c r="A61" s="32"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="2" t="str">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="str">
         <f>IF(C61&lt;&gt;"",VLOOKUP(C61,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E61" s="2" t="str" cm="1">
-        <f t="array" ref="E61">IF(SUMPRODUCT((REF!$H$2:$H$50=D61)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D61)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2" t="str">
+        <f>IF(E61&lt;&gt;"",VLOOKUP(E61,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G61" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H61" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F61&lt;&gt;"",$D61*F61*5*8,"")</f>
         <v/>
       </c>
       <c r="I61" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G61&lt;&gt;"",$G61*F61*5*8,"")</f>
         <v/>
       </c>
       <c r="J61" s="34"/>
@@ -5053,25 +5082,25 @@
       <c r="A62" s="32"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="2" t="str">
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="str">
         <f>IF(C62&lt;&gt;"",VLOOKUP(C62,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E62" s="2" t="str" cm="1">
-        <f t="array" ref="E62">IF(SUMPRODUCT((REF!$H$2:$H$50=D62)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D62)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F62" s="2"/>
+      <c r="F62" s="2" t="str">
+        <f>IF(E62&lt;&gt;"",VLOOKUP(E62,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G62" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H62" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F62&lt;&gt;"",$D62*F62*5*8,"")</f>
         <v/>
       </c>
       <c r="I62" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G62&lt;&gt;"",$G62*F62*5*8,"")</f>
         <v/>
       </c>
       <c r="J62" s="34"/>
@@ -5107,25 +5136,25 @@
       <c r="A63" s="32"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="2" t="str">
+      <c r="D63" s="2"/>
+      <c r="E63" s="2" t="str">
         <f>IF(C63&lt;&gt;"",VLOOKUP(C63,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E63" s="2" t="str" cm="1">
-        <f t="array" ref="E63">IF(SUMPRODUCT((REF!$H$2:$H$50=D63)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D63)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F63" s="2"/>
+      <c r="F63" s="2" t="str">
+        <f>IF(E63&lt;&gt;"",VLOOKUP(E63,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G63" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H63" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F63&lt;&gt;"",$D63*F63*5*8,"")</f>
         <v/>
       </c>
       <c r="I63" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G63&lt;&gt;"",$G63*F63*5*8,"")</f>
         <v/>
       </c>
       <c r="J63" s="34"/>
@@ -5161,25 +5190,25 @@
       <c r="A64" s="32"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="2" t="str">
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="str">
         <f>IF(C64&lt;&gt;"",VLOOKUP(C64,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E64" s="2" t="str" cm="1">
-        <f t="array" ref="E64">IF(SUMPRODUCT((REF!$H$2:$H$50=D64)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D64)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F64" s="2"/>
+      <c r="F64" s="2" t="str">
+        <f>IF(E64&lt;&gt;"",VLOOKUP(E64,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G64" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H64" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F64&lt;&gt;"",$D64*F64*5*8,"")</f>
         <v/>
       </c>
       <c r="I64" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G64&lt;&gt;"",$G64*F64*5*8,"")</f>
         <v/>
       </c>
       <c r="J64" s="34"/>
@@ -5215,25 +5244,25 @@
       <c r="A65" s="32"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="2" t="str">
+      <c r="D65" s="2"/>
+      <c r="E65" s="2" t="str">
         <f>IF(C65&lt;&gt;"",VLOOKUP(C65,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E65" s="2" t="str" cm="1">
-        <f t="array" ref="E65">IF(SUMPRODUCT((REF!$H$2:$H$50=D65)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D65)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F65" s="2"/>
+      <c r="F65" s="2" t="str">
+        <f>IF(E65&lt;&gt;"",VLOOKUP(E65,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G65" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H65" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F65&lt;&gt;"",$D65*F65*5*8,"")</f>
         <v/>
       </c>
       <c r="I65" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G65&lt;&gt;"",$G65*F65*5*8,"")</f>
         <v/>
       </c>
       <c r="J65" s="34"/>
@@ -5269,25 +5298,25 @@
       <c r="A66" s="32"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="2" t="str">
+      <c r="D66" s="2"/>
+      <c r="E66" s="2" t="str">
         <f>IF(C66&lt;&gt;"",VLOOKUP(C66,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E66" s="2" t="str" cm="1">
-        <f t="array" ref="E66">IF(SUMPRODUCT((REF!$H$2:$H$50=D66)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D66)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F66" s="2"/>
+      <c r="F66" s="2" t="str">
+        <f>IF(E66&lt;&gt;"",VLOOKUP(E66,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G66" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H66" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F66&lt;&gt;"",$D66*F66*5*8,"")</f>
         <v/>
       </c>
       <c r="I66" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($G66&lt;&gt;"",$G66*F66*5*8,"")</f>
         <v/>
       </c>
       <c r="J66" s="34"/>
@@ -5323,25 +5352,25 @@
       <c r="A67" s="32"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="2" t="str">
+      <c r="D67" s="2"/>
+      <c r="E67" s="2" t="str">
         <f>IF(C67&lt;&gt;"",VLOOKUP(C67,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E67" s="2" t="str" cm="1">
-        <f t="array" ref="E67">IF(SUMPRODUCT((REF!$H$2:$H$50=D67)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D67)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F67" s="2"/>
+      <c r="F67" s="2" t="str">
+        <f>IF(E67&lt;&gt;"",VLOOKUP(E67,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G67" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H67" s="2" t="str">
-        <f t="shared" ref="H67:H100" si="3">IF(E67&lt;&gt;"",$F67*E67*5*8,"")</f>
+        <f>IF(F67&lt;&gt;"",$D67*F67*5*8,"")</f>
         <v/>
       </c>
       <c r="I67" s="2" t="str">
-        <f t="shared" ref="I67:I100" si="4">IF($G67&lt;&gt;"",$G67*E67*5*8,"")</f>
+        <f>IF($G67&lt;&gt;"",$G67*F67*5*8,"")</f>
         <v/>
       </c>
       <c r="J67" s="34"/>
@@ -5377,25 +5406,25 @@
       <c r="A68" s="32"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="2" t="str">
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="str">
         <f>IF(C68&lt;&gt;"",VLOOKUP(C68,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E68" s="2" t="str" cm="1">
-        <f t="array" ref="E68">IF(SUMPRODUCT((REF!$H$2:$H$50=D68)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D68)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F68" s="2"/>
+      <c r="F68" s="2" t="str">
+        <f>IF(E68&lt;&gt;"",VLOOKUP(E68,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G68" s="2" t="str">
-        <f t="shared" ref="G68:G100" si="5">IF(SUMIF($J68:$AK68,"&gt;0")&gt;0,SUMIF($J68:$AK68,"&gt;0"),"")</f>
+        <f t="shared" ref="G68:G100" si="1">IF(SUMIF($J68:$AK68,"&gt;0")&gt;0,SUMIF($J68:$AK68,"&gt;0"),"")</f>
         <v/>
       </c>
       <c r="H68" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F68&lt;&gt;"",$D68*F68*5*8,"")</f>
         <v/>
       </c>
       <c r="I68" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G68&lt;&gt;"",$G68*F68*5*8,"")</f>
         <v/>
       </c>
       <c r="J68" s="34"/>
@@ -5431,25 +5460,25 @@
       <c r="A69" s="32"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="2" t="str">
+      <c r="D69" s="2"/>
+      <c r="E69" s="2" t="str">
         <f>IF(C69&lt;&gt;"",VLOOKUP(C69,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E69" s="2" t="str" cm="1">
-        <f t="array" ref="E69">IF(SUMPRODUCT((REF!$H$2:$H$50=D69)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D69)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F69" s="2"/>
+      <c r="F69" s="2" t="str">
+        <f>IF(E69&lt;&gt;"",VLOOKUP(E69,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G69" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H69" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F69&lt;&gt;"",$D69*F69*5*8,"")</f>
         <v/>
       </c>
       <c r="I69" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G69&lt;&gt;"",$G69*F69*5*8,"")</f>
         <v/>
       </c>
       <c r="J69" s="34"/>
@@ -5485,25 +5514,25 @@
       <c r="A70" s="32"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="2" t="str">
+      <c r="D70" s="2"/>
+      <c r="E70" s="2" t="str">
         <f>IF(C70&lt;&gt;"",VLOOKUP(C70,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E70" s="2" t="str" cm="1">
-        <f t="array" ref="E70">IF(SUMPRODUCT((REF!$H$2:$H$50=D70)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D70)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F70" s="2"/>
+      <c r="F70" s="2" t="str">
+        <f>IF(E70&lt;&gt;"",VLOOKUP(E70,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G70" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H70" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F70&lt;&gt;"",$D70*F70*5*8,"")</f>
         <v/>
       </c>
       <c r="I70" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G70&lt;&gt;"",$G70*F70*5*8,"")</f>
         <v/>
       </c>
       <c r="J70" s="34"/>
@@ -5539,25 +5568,25 @@
       <c r="A71" s="32"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="2" t="str">
+      <c r="D71" s="2"/>
+      <c r="E71" s="2" t="str">
         <f>IF(C71&lt;&gt;"",VLOOKUP(C71,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E71" s="2" t="str" cm="1">
-        <f t="array" ref="E71">IF(SUMPRODUCT((REF!$H$2:$H$50=D71)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D71)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F71" s="2"/>
+      <c r="F71" s="2" t="str">
+        <f>IF(E71&lt;&gt;"",VLOOKUP(E71,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G71" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H71" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F71&lt;&gt;"",$D71*F71*5*8,"")</f>
         <v/>
       </c>
       <c r="I71" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G71&lt;&gt;"",$G71*F71*5*8,"")</f>
         <v/>
       </c>
       <c r="J71" s="34"/>
@@ -5593,25 +5622,25 @@
       <c r="A72" s="32"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="2" t="str">
+      <c r="D72" s="2"/>
+      <c r="E72" s="2" t="str">
         <f>IF(C72&lt;&gt;"",VLOOKUP(C72,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E72" s="2" t="str" cm="1">
-        <f t="array" ref="E72">IF(SUMPRODUCT((REF!$H$2:$H$50=D72)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D72)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F72" s="2"/>
+      <c r="F72" s="2" t="str">
+        <f>IF(E72&lt;&gt;"",VLOOKUP(E72,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G72" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H72" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F72&lt;&gt;"",$D72*F72*5*8,"")</f>
         <v/>
       </c>
       <c r="I72" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G72&lt;&gt;"",$G72*F72*5*8,"")</f>
         <v/>
       </c>
       <c r="J72" s="34"/>
@@ -5647,25 +5676,25 @@
       <c r="A73" s="32"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="2" t="str">
+      <c r="D73" s="2"/>
+      <c r="E73" s="2" t="str">
         <f>IF(C73&lt;&gt;"",VLOOKUP(C73,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E73" s="2" t="str" cm="1">
-        <f t="array" ref="E73">IF(SUMPRODUCT((REF!$H$2:$H$50=D73)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D73)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F73" s="2"/>
+      <c r="F73" s="2" t="str">
+        <f>IF(E73&lt;&gt;"",VLOOKUP(E73,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G73" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H73" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F73&lt;&gt;"",$D73*F73*5*8,"")</f>
         <v/>
       </c>
       <c r="I73" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G73&lt;&gt;"",$G73*F73*5*8,"")</f>
         <v/>
       </c>
       <c r="J73" s="34"/>
@@ -5701,25 +5730,25 @@
       <c r="A74" s="32"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="2" t="str">
+      <c r="D74" s="2"/>
+      <c r="E74" s="2" t="str">
         <f>IF(C74&lt;&gt;"",VLOOKUP(C74,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E74" s="2" t="str" cm="1">
-        <f t="array" ref="E74">IF(SUMPRODUCT((REF!$H$2:$H$50=D74)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D74)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F74" s="2"/>
+      <c r="F74" s="2" t="str">
+        <f>IF(E74&lt;&gt;"",VLOOKUP(E74,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G74" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H74" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F74&lt;&gt;"",$D74*F74*5*8,"")</f>
         <v/>
       </c>
       <c r="I74" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G74&lt;&gt;"",$G74*F74*5*8,"")</f>
         <v/>
       </c>
       <c r="J74" s="34"/>
@@ -5755,25 +5784,25 @@
       <c r="A75" s="32"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="2" t="str">
+      <c r="D75" s="2"/>
+      <c r="E75" s="2" t="str">
         <f>IF(C75&lt;&gt;"",VLOOKUP(C75,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E75" s="2" t="str" cm="1">
-        <f t="array" ref="E75">IF(SUMPRODUCT((REF!$H$2:$H$50=D75)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D75)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F75" s="2"/>
+      <c r="F75" s="2" t="str">
+        <f>IF(E75&lt;&gt;"",VLOOKUP(E75,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G75" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H75" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F75&lt;&gt;"",$D75*F75*5*8,"")</f>
         <v/>
       </c>
       <c r="I75" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G75&lt;&gt;"",$G75*F75*5*8,"")</f>
         <v/>
       </c>
       <c r="J75" s="34"/>
@@ -5809,25 +5838,25 @@
       <c r="A76" s="32"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="2" t="str">
+      <c r="D76" s="2"/>
+      <c r="E76" s="2" t="str">
         <f>IF(C76&lt;&gt;"",VLOOKUP(C76,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E76" s="2" t="str" cm="1">
-        <f t="array" ref="E76">IF(SUMPRODUCT((REF!$H$2:$H$50=D76)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D76)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F76" s="2"/>
+      <c r="F76" s="2" t="str">
+        <f>IF(E76&lt;&gt;"",VLOOKUP(E76,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G76" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H76" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F76&lt;&gt;"",$D76*F76*5*8,"")</f>
         <v/>
       </c>
       <c r="I76" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G76&lt;&gt;"",$G76*F76*5*8,"")</f>
         <v/>
       </c>
       <c r="J76" s="34"/>
@@ -5863,25 +5892,25 @@
       <c r="A77" s="32"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="2" t="str">
+      <c r="D77" s="2"/>
+      <c r="E77" s="2" t="str">
         <f>IF(C77&lt;&gt;"",VLOOKUP(C77,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E77" s="2" t="str" cm="1">
-        <f t="array" ref="E77">IF(SUMPRODUCT((REF!$H$2:$H$50=D77)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D77)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F77" s="2"/>
+      <c r="F77" s="2" t="str">
+        <f>IF(E77&lt;&gt;"",VLOOKUP(E77,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G77" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H77" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F77&lt;&gt;"",$D77*F77*5*8,"")</f>
         <v/>
       </c>
       <c r="I77" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G77&lt;&gt;"",$G77*F77*5*8,"")</f>
         <v/>
       </c>
       <c r="J77" s="34"/>
@@ -5917,25 +5946,25 @@
       <c r="A78" s="32"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="2" t="str">
+      <c r="D78" s="2"/>
+      <c r="E78" s="2" t="str">
         <f>IF(C78&lt;&gt;"",VLOOKUP(C78,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E78" s="2" t="str" cm="1">
-        <f t="array" ref="E78">IF(SUMPRODUCT((REF!$H$2:$H$50=D78)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D78)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F78" s="2"/>
+      <c r="F78" s="2" t="str">
+        <f>IF(E78&lt;&gt;"",VLOOKUP(E78,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G78" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H78" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F78&lt;&gt;"",$D78*F78*5*8,"")</f>
         <v/>
       </c>
       <c r="I78" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G78&lt;&gt;"",$G78*F78*5*8,"")</f>
         <v/>
       </c>
       <c r="J78" s="34"/>
@@ -5971,25 +6000,25 @@
       <c r="A79" s="32"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="2" t="str">
+      <c r="D79" s="2"/>
+      <c r="E79" s="2" t="str">
         <f>IF(C79&lt;&gt;"",VLOOKUP(C79,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E79" s="2" t="str" cm="1">
-        <f t="array" ref="E79">IF(SUMPRODUCT((REF!$H$2:$H$50=D79)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D79)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F79" s="2"/>
+      <c r="F79" s="2" t="str">
+        <f>IF(E79&lt;&gt;"",VLOOKUP(E79,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G79" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H79" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F79&lt;&gt;"",$D79*F79*5*8,"")</f>
         <v/>
       </c>
       <c r="I79" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G79&lt;&gt;"",$G79*F79*5*8,"")</f>
         <v/>
       </c>
       <c r="J79" s="34"/>
@@ -6025,25 +6054,25 @@
       <c r="A80" s="32"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="2" t="str">
+      <c r="D80" s="2"/>
+      <c r="E80" s="2" t="str">
         <f>IF(C80&lt;&gt;"",VLOOKUP(C80,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E80" s="2" t="str" cm="1">
-        <f t="array" ref="E80">IF(SUMPRODUCT((REF!$H$2:$H$50=D80)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D80)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F80" s="2"/>
+      <c r="F80" s="2" t="str">
+        <f>IF(E80&lt;&gt;"",VLOOKUP(E80,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G80" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H80" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F80&lt;&gt;"",$D80*F80*5*8,"")</f>
         <v/>
       </c>
       <c r="I80" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G80&lt;&gt;"",$G80*F80*5*8,"")</f>
         <v/>
       </c>
       <c r="J80" s="34"/>
@@ -6079,25 +6108,25 @@
       <c r="A81" s="32"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="2" t="str">
+      <c r="D81" s="2"/>
+      <c r="E81" s="2" t="str">
         <f>IF(C81&lt;&gt;"",VLOOKUP(C81,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E81" s="2" t="str" cm="1">
-        <f t="array" ref="E81">IF(SUMPRODUCT((REF!$H$2:$H$50=D81)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D81)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F81" s="2"/>
+      <c r="F81" s="2" t="str">
+        <f>IF(E81&lt;&gt;"",VLOOKUP(E81,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G81" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H81" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F81&lt;&gt;"",$D81*F81*5*8,"")</f>
         <v/>
       </c>
       <c r="I81" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G81&lt;&gt;"",$G81*F81*5*8,"")</f>
         <v/>
       </c>
       <c r="J81" s="34"/>
@@ -6133,25 +6162,25 @@
       <c r="A82" s="32"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="2" t="str">
+      <c r="D82" s="2"/>
+      <c r="E82" s="2" t="str">
         <f>IF(C82&lt;&gt;"",VLOOKUP(C82,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E82" s="2" t="str" cm="1">
-        <f t="array" ref="E82">IF(SUMPRODUCT((REF!$H$2:$H$50=D82)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D82)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F82" s="2"/>
+      <c r="F82" s="2" t="str">
+        <f>IF(E82&lt;&gt;"",VLOOKUP(E82,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G82" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H82" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F82&lt;&gt;"",$D82*F82*5*8,"")</f>
         <v/>
       </c>
       <c r="I82" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G82&lt;&gt;"",$G82*F82*5*8,"")</f>
         <v/>
       </c>
       <c r="J82" s="34"/>
@@ -6187,25 +6216,25 @@
       <c r="A83" s="32"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="2" t="str">
+      <c r="D83" s="2"/>
+      <c r="E83" s="2" t="str">
         <f>IF(C83&lt;&gt;"",VLOOKUP(C83,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E83" s="2" t="str" cm="1">
-        <f t="array" ref="E83">IF(SUMPRODUCT((REF!$H$2:$H$50=D83)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D83)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F83" s="2"/>
+      <c r="F83" s="2" t="str">
+        <f>IF(E83&lt;&gt;"",VLOOKUP(E83,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G83" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H83" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F83&lt;&gt;"",$D83*F83*5*8,"")</f>
         <v/>
       </c>
       <c r="I83" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G83&lt;&gt;"",$G83*F83*5*8,"")</f>
         <v/>
       </c>
       <c r="J83" s="34"/>
@@ -6241,25 +6270,25 @@
       <c r="A84" s="32"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="2" t="str">
+      <c r="D84" s="2"/>
+      <c r="E84" s="2" t="str">
         <f>IF(C84&lt;&gt;"",VLOOKUP(C84,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E84" s="2" t="str" cm="1">
-        <f t="array" ref="E84">IF(SUMPRODUCT((REF!$H$2:$H$50=D84)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D84)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F84" s="2"/>
+      <c r="F84" s="2" t="str">
+        <f>IF(E84&lt;&gt;"",VLOOKUP(E84,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G84" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H84" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F84&lt;&gt;"",$D84*F84*5*8,"")</f>
         <v/>
       </c>
       <c r="I84" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G84&lt;&gt;"",$G84*F84*5*8,"")</f>
         <v/>
       </c>
       <c r="J84" s="34"/>
@@ -6295,25 +6324,25 @@
       <c r="A85" s="32"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="2" t="str">
+      <c r="D85" s="2"/>
+      <c r="E85" s="2" t="str">
         <f>IF(C85&lt;&gt;"",VLOOKUP(C85,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E85" s="2" t="str" cm="1">
-        <f t="array" ref="E85">IF(SUMPRODUCT((REF!$H$2:$H$50=D85)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D85)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F85" s="2"/>
+      <c r="F85" s="2" t="str">
+        <f>IF(E85&lt;&gt;"",VLOOKUP(E85,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G85" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H85" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F85&lt;&gt;"",$D85*F85*5*8,"")</f>
         <v/>
       </c>
       <c r="I85" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G85&lt;&gt;"",$G85*F85*5*8,"")</f>
         <v/>
       </c>
       <c r="J85" s="34"/>
@@ -6349,25 +6378,25 @@
       <c r="A86" s="32"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="2" t="str">
+      <c r="D86" s="2"/>
+      <c r="E86" s="2" t="str">
         <f>IF(C86&lt;&gt;"",VLOOKUP(C86,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E86" s="2" t="str" cm="1">
-        <f t="array" ref="E86">IF(SUMPRODUCT((REF!$H$2:$H$50=D86)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D86)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F86" s="2"/>
+      <c r="F86" s="2" t="str">
+        <f>IF(E86&lt;&gt;"",VLOOKUP(E86,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G86" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H86" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F86&lt;&gt;"",$D86*F86*5*8,"")</f>
         <v/>
       </c>
       <c r="I86" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G86&lt;&gt;"",$G86*F86*5*8,"")</f>
         <v/>
       </c>
       <c r="J86" s="34"/>
@@ -6403,25 +6432,25 @@
       <c r="A87" s="32"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="2" t="str">
+      <c r="D87" s="2"/>
+      <c r="E87" s="2" t="str">
         <f>IF(C87&lt;&gt;"",VLOOKUP(C87,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E87" s="2" t="str" cm="1">
-        <f t="array" ref="E87">IF(SUMPRODUCT((REF!$H$2:$H$50=D87)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D87)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F87" s="2"/>
+      <c r="F87" s="2" t="str">
+        <f>IF(E87&lt;&gt;"",VLOOKUP(E87,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G87" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H87" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F87&lt;&gt;"",$D87*F87*5*8,"")</f>
         <v/>
       </c>
       <c r="I87" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G87&lt;&gt;"",$G87*F87*5*8,"")</f>
         <v/>
       </c>
       <c r="J87" s="34"/>
@@ -6457,25 +6486,25 @@
       <c r="A88" s="32"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="2" t="str">
+      <c r="D88" s="2"/>
+      <c r="E88" s="2" t="str">
         <f>IF(C88&lt;&gt;"",VLOOKUP(C88,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E88" s="2" t="str" cm="1">
-        <f t="array" ref="E88">IF(SUMPRODUCT((REF!$H$2:$H$50=D88)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D88)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F88" s="2"/>
+      <c r="F88" s="2" t="str">
+        <f>IF(E88&lt;&gt;"",VLOOKUP(E88,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G88" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H88" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F88&lt;&gt;"",$D88*F88*5*8,"")</f>
         <v/>
       </c>
       <c r="I88" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G88&lt;&gt;"",$G88*F88*5*8,"")</f>
         <v/>
       </c>
       <c r="J88" s="34"/>
@@ -6511,25 +6540,25 @@
       <c r="A89" s="32"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="2" t="str">
+      <c r="D89" s="2"/>
+      <c r="E89" s="2" t="str">
         <f>IF(C89&lt;&gt;"",VLOOKUP(C89,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E89" s="2" t="str" cm="1">
-        <f t="array" ref="E89">IF(SUMPRODUCT((REF!$H$2:$H$50=D89)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D89)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F89" s="2"/>
+      <c r="F89" s="2" t="str">
+        <f>IF(E89&lt;&gt;"",VLOOKUP(E89,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G89" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H89" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F89&lt;&gt;"",$D89*F89*5*8,"")</f>
         <v/>
       </c>
       <c r="I89" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G89&lt;&gt;"",$G89*F89*5*8,"")</f>
         <v/>
       </c>
       <c r="J89" s="34"/>
@@ -6565,25 +6594,25 @@
       <c r="A90" s="32"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="2" t="str">
+      <c r="D90" s="2"/>
+      <c r="E90" s="2" t="str">
         <f>IF(C90&lt;&gt;"",VLOOKUP(C90,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E90" s="2" t="str" cm="1">
-        <f t="array" ref="E90">IF(SUMPRODUCT((REF!$H$2:$H$50=D90)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D90)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F90" s="2"/>
+      <c r="F90" s="2" t="str">
+        <f>IF(E90&lt;&gt;"",VLOOKUP(E90,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G90" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H90" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F90&lt;&gt;"",$D90*F90*5*8,"")</f>
         <v/>
       </c>
       <c r="I90" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G90&lt;&gt;"",$G90*F90*5*8,"")</f>
         <v/>
       </c>
       <c r="J90" s="34"/>
@@ -6619,25 +6648,25 @@
       <c r="A91" s="32"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2" t="str">
+      <c r="D91" s="2"/>
+      <c r="E91" s="2" t="str">
         <f>IF(C91&lt;&gt;"",VLOOKUP(C91,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E91" s="2" t="str" cm="1">
-        <f t="array" ref="E91">IF(SUMPRODUCT((REF!$H$2:$H$50=D91)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D91)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F91" s="2"/>
+      <c r="F91" s="2" t="str">
+        <f>IF(E91&lt;&gt;"",VLOOKUP(E91,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G91" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H91" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F91&lt;&gt;"",$D91*F91*5*8,"")</f>
         <v/>
       </c>
       <c r="I91" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G91&lt;&gt;"",$G91*F91*5*8,"")</f>
         <v/>
       </c>
       <c r="J91" s="34"/>
@@ -6673,25 +6702,25 @@
       <c r="A92" s="32"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="2" t="str">
+      <c r="D92" s="2"/>
+      <c r="E92" s="2" t="str">
         <f>IF(C92&lt;&gt;"",VLOOKUP(C92,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E92" s="2" t="str" cm="1">
-        <f t="array" ref="E92">IF(SUMPRODUCT((REF!$H$2:$H$50=D92)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D92)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F92" s="2"/>
+      <c r="F92" s="2" t="str">
+        <f>IF(E92&lt;&gt;"",VLOOKUP(E92,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G92" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H92" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F92&lt;&gt;"",$D92*F92*5*8,"")</f>
         <v/>
       </c>
       <c r="I92" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G92&lt;&gt;"",$G92*F92*5*8,"")</f>
         <v/>
       </c>
       <c r="J92" s="34"/>
@@ -6727,25 +6756,25 @@
       <c r="A93" s="32"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="2" t="str">
+      <c r="D93" s="2"/>
+      <c r="E93" s="2" t="str">
         <f>IF(C93&lt;&gt;"",VLOOKUP(C93,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E93" s="2" t="str" cm="1">
-        <f t="array" ref="E93">IF(SUMPRODUCT((REF!$H$2:$H$50=D93)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D93)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F93" s="2"/>
+      <c r="F93" s="2" t="str">
+        <f>IF(E93&lt;&gt;"",VLOOKUP(E93,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G93" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H93" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F93&lt;&gt;"",$D93*F93*5*8,"")</f>
         <v/>
       </c>
       <c r="I93" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G93&lt;&gt;"",$G93*F93*5*8,"")</f>
         <v/>
       </c>
       <c r="J93" s="34"/>
@@ -6781,25 +6810,25 @@
       <c r="A94" s="32"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="2" t="str">
+      <c r="D94" s="2"/>
+      <c r="E94" s="2" t="str">
         <f>IF(C94&lt;&gt;"",VLOOKUP(C94,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E94" s="2" t="str" cm="1">
-        <f t="array" ref="E94">IF(SUMPRODUCT((REF!$H$2:$H$50=D94)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D94)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F94" s="2"/>
+      <c r="F94" s="2" t="str">
+        <f>IF(E94&lt;&gt;"",VLOOKUP(E94,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G94" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H94" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F94&lt;&gt;"",$D94*F94*5*8,"")</f>
         <v/>
       </c>
       <c r="I94" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G94&lt;&gt;"",$G94*F94*5*8,"")</f>
         <v/>
       </c>
       <c r="J94" s="34"/>
@@ -6835,25 +6864,25 @@
       <c r="A95" s="32"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="2" t="str">
+      <c r="D95" s="2"/>
+      <c r="E95" s="2" t="str">
         <f>IF(C95&lt;&gt;"",VLOOKUP(C95,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E95" s="2" t="str" cm="1">
-        <f t="array" ref="E95">IF(SUMPRODUCT((REF!$H$2:$H$50=D95)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D95)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F95" s="2"/>
+      <c r="F95" s="2" t="str">
+        <f>IF(E95&lt;&gt;"",VLOOKUP(E95,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G95" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H95" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F95&lt;&gt;"",$D95*F95*5*8,"")</f>
         <v/>
       </c>
       <c r="I95" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G95&lt;&gt;"",$G95*F95*5*8,"")</f>
         <v/>
       </c>
       <c r="J95" s="34"/>
@@ -6889,25 +6918,25 @@
       <c r="A96" s="32"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="2" t="str">
+      <c r="D96" s="2"/>
+      <c r="E96" s="2" t="str">
         <f>IF(C96&lt;&gt;"",VLOOKUP(C96,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E96" s="2" t="str" cm="1">
-        <f t="array" ref="E96">IF(SUMPRODUCT((REF!$H$2:$H$50=D96)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D96)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F96" s="2"/>
+      <c r="F96" s="2" t="str">
+        <f>IF(E96&lt;&gt;"",VLOOKUP(E96,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G96" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H96" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F96&lt;&gt;"",$D96*F96*5*8,"")</f>
         <v/>
       </c>
       <c r="I96" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G96&lt;&gt;"",$G96*F96*5*8,"")</f>
         <v/>
       </c>
       <c r="J96" s="34"/>
@@ -6943,25 +6972,25 @@
       <c r="A97" s="32"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="2" t="str">
+      <c r="D97" s="2"/>
+      <c r="E97" s="2" t="str">
         <f>IF(C97&lt;&gt;"",VLOOKUP(C97,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E97" s="2" t="str" cm="1">
-        <f t="array" ref="E97">IF(SUMPRODUCT((REF!$H$2:$H$50=D97)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D97)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F97" s="2"/>
+      <c r="F97" s="2" t="str">
+        <f>IF(E97&lt;&gt;"",VLOOKUP(E97,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G97" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H97" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F97&lt;&gt;"",$D97*F97*5*8,"")</f>
         <v/>
       </c>
       <c r="I97" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G97&lt;&gt;"",$G97*F97*5*8,"")</f>
         <v/>
       </c>
       <c r="J97" s="34"/>
@@ -6997,25 +7026,25 @@
       <c r="A98" s="32"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="2" t="str">
+      <c r="D98" s="2"/>
+      <c r="E98" s="2" t="str">
         <f>IF(C98&lt;&gt;"",VLOOKUP(C98,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E98" s="2" t="str" cm="1">
-        <f t="array" ref="E98">IF(SUMPRODUCT((REF!$H$2:$H$50=D98)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D98)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F98" s="2"/>
+      <c r="F98" s="2" t="str">
+        <f>IF(E98&lt;&gt;"",VLOOKUP(E98,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G98" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H98" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F98&lt;&gt;"",$D98*F98*5*8,"")</f>
         <v/>
       </c>
       <c r="I98" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G98&lt;&gt;"",$G98*F98*5*8,"")</f>
         <v/>
       </c>
       <c r="J98" s="34"/>
@@ -7051,25 +7080,25 @@
       <c r="A99" s="33"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="2" t="str">
+      <c r="D99" s="2"/>
+      <c r="E99" s="2" t="str">
         <f>IF(C99&lt;&gt;"",VLOOKUP(C99,REF!$E$2:$F$50,2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="E99" s="2" t="str" cm="1">
-        <f t="array" ref="E99">IF(SUMPRODUCT((REF!$H$2:$H$50=D99)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D99)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F99" s="2"/>
+      <c r="F99" s="2" t="str">
+        <f>IF(E99&lt;&gt;"",VLOOKUP(E99,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G99" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H99" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F99&lt;&gt;"",$D99*F99*5*8,"")</f>
         <v/>
       </c>
       <c r="I99" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G99&lt;&gt;"",$G99*F99*5*8,"")</f>
         <v/>
       </c>
       <c r="J99" s="34"/>
@@ -7105,25 +7134,25 @@
       <c r="A100" s="2"/>
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
-      <c r="D100" s="2" t="str">
+      <c r="D100" s="18"/>
+      <c r="E100" s="2" t="str">
         <f>IF(C100&lt;&gt;"",LOOKUP(C100,REF!$E$2:$E$50,REF!$F$2:$F$50), "")</f>
         <v/>
       </c>
-      <c r="E100" s="2" t="str" cm="1">
-        <f t="array" ref="E100">IF(SUMPRODUCT((REF!$H$2:$H$50=D100)*(REF!$I$2:$I$50)) &gt; 0, SUMPRODUCT((REF!$H$2:$H$50=D100)*(REF!$I$2:$I$50)), "")</f>
-        <v/>
-      </c>
-      <c r="F100" s="18"/>
+      <c r="F100" s="2" t="str">
+        <f>IF(E100&lt;&gt;"",VLOOKUP(E100,REF!$H$2:$I$50,2,FALSE), "")</f>
+        <v/>
+      </c>
       <c r="G100" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H100" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F100&lt;&gt;"",$D100*F100*5*8,"")</f>
         <v/>
       </c>
       <c r="I100" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($G100&lt;&gt;"",$G100*F100*5*8,"")</f>
         <v/>
       </c>
       <c r="J100" s="34"/>
@@ -7157,18 +7186,18 @@
     </row>
     <row r="101" spans="1:37" ht="23" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C101" s="36"/>
-      <c r="D101" s="37"/>
-      <c r="E101" s="38"/>
-      <c r="F101" s="20">
-        <f>SUM($F2:F100)</f>
+        <v>53</v>
+      </c>
+      <c r="C101" s="44"/>
+      <c r="D101" s="20">
+        <f>SUM($D2:D100)</f>
         <v>50</v>
       </c>
+      <c r="E101" s="36"/>
+      <c r="F101" s="37"/>
       <c r="G101" s="20">
         <f>SUM($G2:G100)</f>
-        <v>50</v>
+        <v>50.25</v>
       </c>
       <c r="H101" s="20">
         <f>SUM($H2:H100)</f>
@@ -7176,17 +7205,24 @@
       </c>
       <c r="I101" s="21">
         <f>SUM($I2:I100)</f>
-        <v>208500</v>
+        <v>209750</v>
       </c>
     </row>
     <row r="102" spans="1:37" ht="23" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C102" s="35" t="s">
         <v>2</v>
       </c>
+      <c r="D102" s="45"/>
+      <c r="E102" s="46"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="46"/>
     </row>
     <row r="103" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="C103" s="5" t="s">
-        <v>59</v>
+      <c r="C103" s="5" t="str" cm="1">
+        <f t="array" ref="C103:C151">REF!E2:E50</f>
+        <v>AMGR1</v>
       </c>
       <c r="D103" s="24"/>
       <c r="E103" s="25"/>
@@ -7308,8 +7344,8 @@
       </c>
     </row>
     <row r="104" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="C104" s="7" t="s">
-        <v>60</v>
+      <c r="C104" s="7" t="str">
+        <v>PM1</v>
       </c>
       <c r="D104" s="26"/>
       <c r="E104" s="27"/>
@@ -7431,8 +7467,8 @@
       </c>
     </row>
     <row r="105" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="C105" s="7" t="s">
-        <v>63</v>
+      <c r="C105" s="7" t="str">
+        <v>TL1</v>
       </c>
       <c r="D105" s="26"/>
       <c r="E105" s="27"/>
@@ -7458,7 +7494,7 @@
       </c>
       <c r="N105" s="2" cm="1">
         <f t="array" ref="N105">IF(SUMPRODUCT(($C105=$C$2:$C$100)*N$2:N$100)&gt;0, SUMPRODUCT(($C105=$C$2:$C$100)*N$2:N$100),"")</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="O105" s="2" cm="1">
         <f t="array" ref="O105">IF(SUMPRODUCT(($C105=$C$2:$C$100)*O$2:O$100)&gt;0, SUMPRODUCT(($C105=$C$2:$C$100)*O$2:O$100),"")</f>
@@ -7554,8 +7590,8 @@
       </c>
     </row>
     <row r="106" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="C106" s="7" t="s">
-        <v>64</v>
+      <c r="C106" s="7" t="str">
+        <v>SrD1</v>
       </c>
       <c r="D106" s="26"/>
       <c r="E106" s="27"/>
@@ -7677,8 +7713,8 @@
       </c>
     </row>
     <row r="107" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="C107" s="7" t="s">
-        <v>65</v>
+      <c r="C107" s="7" t="str">
+        <v>Dev1</v>
       </c>
       <c r="D107" s="26"/>
       <c r="E107" s="27"/>
@@ -7800,8 +7836,8 @@
       </c>
     </row>
     <row r="108" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="C108" s="7" t="s">
-        <v>66</v>
+      <c r="C108" s="7" t="str">
+        <v>Dev2</v>
       </c>
       <c r="D108" s="26"/>
       <c r="E108" s="27"/>
@@ -7923,8 +7959,8 @@
       </c>
     </row>
     <row r="109" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="C109" s="7" t="s">
-        <v>67</v>
+      <c r="C109" s="7" t="str">
+        <v>Tester1</v>
       </c>
       <c r="D109" s="26"/>
       <c r="E109" s="27"/>
@@ -8046,7 +8082,9 @@
       </c>
     </row>
     <row r="110" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="C110" s="7"/>
+      <c r="C110" s="7">
+        <v>0</v>
+      </c>
       <c r="D110" s="26"/>
       <c r="E110" s="27"/>
       <c r="F110" s="27"/>
@@ -8167,7 +8205,9 @@
       </c>
     </row>
     <row r="111" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="C111" s="7"/>
+      <c r="C111" s="7">
+        <v>0</v>
+      </c>
       <c r="D111" s="26"/>
       <c r="E111" s="27"/>
       <c r="F111" s="27"/>
@@ -8288,7 +8328,9 @@
       </c>
     </row>
     <row r="112" spans="1:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="C112" s="7"/>
+      <c r="C112" s="7">
+        <v>0</v>
+      </c>
       <c r="D112" s="26"/>
       <c r="E112" s="27"/>
       <c r="F112" s="27"/>
@@ -8410,9 +8452,11 @@
     </row>
     <row r="113" spans="2:37" ht="17" x14ac:dyDescent="0.2">
       <c r="B113" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C113" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="C113" s="7">
+        <v>0</v>
+      </c>
       <c r="D113" s="26"/>
       <c r="E113" s="27"/>
       <c r="F113" s="27"/>
@@ -8532,9 +8576,11 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="30"/>
-      <c r="C114" s="7"/>
+      <c r="C114" s="7">
+        <v>0</v>
+      </c>
       <c r="D114" s="26"/>
       <c r="E114" s="27"/>
       <c r="F114" s="27"/>
@@ -8654,9 +8700,11 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="30"/>
-      <c r="C115" s="7"/>
+      <c r="C115" s="7">
+        <v>0</v>
+      </c>
       <c r="D115" s="26"/>
       <c r="E115" s="27"/>
       <c r="F115" s="27"/>
@@ -8776,9 +8824,11 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="30"/>
-      <c r="C116" s="7"/>
+      <c r="C116" s="7">
+        <v>0</v>
+      </c>
       <c r="D116" s="26"/>
       <c r="E116" s="27"/>
       <c r="F116" s="27"/>
@@ -8898,9 +8948,11 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="30"/>
-      <c r="C117" s="7"/>
+      <c r="C117" s="7">
+        <v>0</v>
+      </c>
       <c r="D117" s="26"/>
       <c r="E117" s="27"/>
       <c r="F117" s="27"/>
@@ -9020,9 +9072,11 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="30"/>
-      <c r="C118" s="7"/>
+      <c r="C118" s="7">
+        <v>0</v>
+      </c>
       <c r="D118" s="26"/>
       <c r="E118" s="27"/>
       <c r="F118" s="27"/>
@@ -9142,9 +9196,11 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="30"/>
-      <c r="C119" s="7"/>
+      <c r="C119" s="7">
+        <v>0</v>
+      </c>
       <c r="D119" s="26"/>
       <c r="E119" s="27"/>
       <c r="F119" s="27"/>
@@ -9264,9 +9320,11 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="30"/>
-      <c r="C120" s="7"/>
+      <c r="C120" s="7">
+        <v>0</v>
+      </c>
       <c r="D120" s="26"/>
       <c r="E120" s="27"/>
       <c r="F120" s="27"/>
@@ -9386,9 +9444,11 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="30"/>
-      <c r="C121" s="7"/>
+      <c r="C121" s="7">
+        <v>0</v>
+      </c>
       <c r="D121" s="26"/>
       <c r="E121" s="27"/>
       <c r="F121" s="27"/>
@@ -9508,9 +9568,11 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="30"/>
-      <c r="C122" s="7"/>
+      <c r="C122" s="7">
+        <v>0</v>
+      </c>
       <c r="D122" s="26"/>
       <c r="E122" s="27"/>
       <c r="F122" s="27"/>
@@ -9630,9 +9692,11 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="30"/>
-      <c r="C123" s="7"/>
+      <c r="C123" s="7">
+        <v>0</v>
+      </c>
       <c r="D123" s="26"/>
       <c r="E123" s="27"/>
       <c r="F123" s="27"/>
@@ -9752,9 +9816,11 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="30"/>
-      <c r="C124" s="7"/>
+      <c r="C124" s="7">
+        <v>0</v>
+      </c>
       <c r="D124" s="26"/>
       <c r="E124" s="27"/>
       <c r="F124" s="27"/>
@@ -9874,9 +9940,11 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="30"/>
-      <c r="C125" s="7"/>
+      <c r="C125" s="7">
+        <v>0</v>
+      </c>
       <c r="D125" s="26"/>
       <c r="E125" s="27"/>
       <c r="F125" s="27"/>
@@ -9996,9 +10064,11 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="30"/>
-      <c r="C126" s="7"/>
+      <c r="C126" s="7">
+        <v>0</v>
+      </c>
       <c r="D126" s="26"/>
       <c r="E126" s="27"/>
       <c r="F126" s="27"/>
@@ -10118,9 +10188,11 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="30"/>
-      <c r="C127" s="7"/>
+      <c r="C127" s="7">
+        <v>0</v>
+      </c>
       <c r="D127" s="26"/>
       <c r="E127" s="27"/>
       <c r="F127" s="27"/>
@@ -10240,9 +10312,11 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="30"/>
-      <c r="C128" s="7"/>
+      <c r="C128" s="7">
+        <v>0</v>
+      </c>
       <c r="D128" s="26"/>
       <c r="E128" s="27"/>
       <c r="F128" s="27"/>
@@ -10362,9 +10436,11 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="30"/>
-      <c r="C129" s="7"/>
+      <c r="C129" s="7">
+        <v>0</v>
+      </c>
       <c r="D129" s="26"/>
       <c r="E129" s="27"/>
       <c r="F129" s="27"/>
@@ -10484,9 +10560,11 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="30"/>
-      <c r="C130" s="7"/>
+      <c r="C130" s="7">
+        <v>0</v>
+      </c>
       <c r="D130" s="26"/>
       <c r="E130" s="27"/>
       <c r="F130" s="27"/>
@@ -10606,9 +10684,11 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="30"/>
-      <c r="C131" s="7"/>
+      <c r="C131" s="7">
+        <v>0</v>
+      </c>
       <c r="D131" s="26"/>
       <c r="E131" s="27"/>
       <c r="F131" s="27"/>
@@ -10728,9 +10808,11 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="30"/>
-      <c r="C132" s="7"/>
+      <c r="C132" s="7">
+        <v>0</v>
+      </c>
       <c r="D132" s="26"/>
       <c r="E132" s="27"/>
       <c r="F132" s="27"/>
@@ -10850,9 +10932,11 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="30"/>
-      <c r="C133" s="7"/>
+      <c r="C133" s="7">
+        <v>0</v>
+      </c>
       <c r="D133" s="26"/>
       <c r="E133" s="27"/>
       <c r="F133" s="27"/>
@@ -10972,9 +11056,11 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="30"/>
-      <c r="C134" s="7"/>
+      <c r="C134" s="7">
+        <v>0</v>
+      </c>
       <c r="D134" s="26"/>
       <c r="E134" s="27"/>
       <c r="F134" s="27"/>
@@ -11094,9 +11180,11 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="30"/>
-      <c r="C135" s="7"/>
+      <c r="C135" s="7">
+        <v>0</v>
+      </c>
       <c r="D135" s="26"/>
       <c r="E135" s="27"/>
       <c r="F135" s="27"/>
@@ -11216,9 +11304,11 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="30"/>
-      <c r="C136" s="7"/>
+      <c r="C136" s="7">
+        <v>0</v>
+      </c>
       <c r="D136" s="26"/>
       <c r="E136" s="27"/>
       <c r="F136" s="27"/>
@@ -11338,9 +11428,11 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="30"/>
-      <c r="C137" s="7"/>
+      <c r="C137" s="7">
+        <v>0</v>
+      </c>
       <c r="D137" s="26"/>
       <c r="E137" s="27"/>
       <c r="F137" s="27"/>
@@ -11460,9 +11552,11 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="30"/>
-      <c r="C138" s="7"/>
+      <c r="C138" s="7">
+        <v>0</v>
+      </c>
       <c r="D138" s="26"/>
       <c r="E138" s="27"/>
       <c r="F138" s="27"/>
@@ -11582,9 +11676,11 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="30"/>
-      <c r="C139" s="7"/>
+      <c r="C139" s="7">
+        <v>0</v>
+      </c>
       <c r="D139" s="26"/>
       <c r="E139" s="27"/>
       <c r="F139" s="27"/>
@@ -11704,9 +11800,11 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="30"/>
-      <c r="C140" s="7"/>
+      <c r="C140" s="7">
+        <v>0</v>
+      </c>
       <c r="D140" s="26"/>
       <c r="E140" s="27"/>
       <c r="F140" s="27"/>
@@ -11826,9 +11924,11 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="30"/>
-      <c r="C141" s="7"/>
+      <c r="C141" s="7">
+        <v>0</v>
+      </c>
       <c r="D141" s="26"/>
       <c r="E141" s="27"/>
       <c r="F141" s="27"/>
@@ -11948,9 +12048,11 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="30"/>
-      <c r="C142" s="7"/>
+      <c r="C142" s="7">
+        <v>0</v>
+      </c>
       <c r="D142" s="26"/>
       <c r="E142" s="27"/>
       <c r="F142" s="27"/>
@@ -12070,9 +12172,11 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="30"/>
-      <c r="C143" s="7"/>
+      <c r="C143" s="7">
+        <v>0</v>
+      </c>
       <c r="D143" s="26"/>
       <c r="E143" s="27"/>
       <c r="F143" s="27"/>
@@ -12192,9 +12296,11 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="30"/>
-      <c r="C144" s="7"/>
+      <c r="C144" s="7">
+        <v>0</v>
+      </c>
       <c r="D144" s="26"/>
       <c r="E144" s="27"/>
       <c r="F144" s="27"/>
@@ -12314,9 +12420,11 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="30"/>
-      <c r="C145" s="7"/>
+      <c r="C145" s="7">
+        <v>0</v>
+      </c>
       <c r="D145" s="26"/>
       <c r="E145" s="27"/>
       <c r="F145" s="27"/>
@@ -12436,9 +12544,11 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="30"/>
-      <c r="C146" s="7"/>
+      <c r="C146" s="7">
+        <v>0</v>
+      </c>
       <c r="D146" s="26"/>
       <c r="E146" s="27"/>
       <c r="F146" s="27"/>
@@ -12558,9 +12668,11 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="30"/>
-      <c r="C147" s="7"/>
+      <c r="C147" s="7">
+        <v>0</v>
+      </c>
       <c r="D147" s="26"/>
       <c r="E147" s="27"/>
       <c r="F147" s="27"/>
@@ -12680,9 +12792,11 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="30"/>
-      <c r="C148" s="7"/>
+      <c r="C148" s="7">
+        <v>0</v>
+      </c>
       <c r="D148" s="26"/>
       <c r="E148" s="27"/>
       <c r="F148" s="27"/>
@@ -12802,9 +12916,11 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="30"/>
-      <c r="C149" s="7"/>
+      <c r="C149" s="7">
+        <v>0</v>
+      </c>
       <c r="D149" s="26"/>
       <c r="E149" s="27"/>
       <c r="F149" s="27"/>
@@ -12924,9 +13040,11 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="30"/>
-      <c r="C150" s="7"/>
+      <c r="C150" s="7">
+        <v>0</v>
+      </c>
       <c r="D150" s="26"/>
       <c r="E150" s="27"/>
       <c r="F150" s="27"/>
@@ -13046,9 +13164,11 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="2:37" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="30"/>
-      <c r="C151" s="7"/>
+      <c r="C151" s="7">
+        <v>0</v>
+      </c>
       <c r="D151" s="26"/>
       <c r="E151" s="27"/>
       <c r="F151" s="27"/>
@@ -13413,13 +13533,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="55">
     <mergeCell ref="D150:I150"/>
     <mergeCell ref="D151:I151"/>
     <mergeCell ref="D152:I152"/>
     <mergeCell ref="D153:I153"/>
     <mergeCell ref="B113:B153"/>
-    <mergeCell ref="C101:E101"/>
     <mergeCell ref="D142:I142"/>
     <mergeCell ref="D143:I143"/>
     <mergeCell ref="D144:I144"/>
@@ -13468,26 +13587,29 @@
     <mergeCell ref="D113:I113"/>
     <mergeCell ref="A20:A99"/>
     <mergeCell ref="D103:I103"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="D102:I102"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2:AK100">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J103:AK153">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+      <formula>1.00001</formula>
+      <formula>10000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
       <formula>0.0001</formula>
-      <formula>100000</formula>
+      <formula>1.0001</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <cellWatches>
-    <cellWatch r="D2"/>
-  </cellWatches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B28F211-96B6-F04B-A831-82E477E23CC9}">
           <x14:formula1>
             <xm:f>REF!$B$2:$B$50</xm:f>
@@ -13498,7 +13620,7 @@
           <x14:formula1>
             <xm:f>REF!$E$2:$E$50</xm:f>
           </x14:formula1>
-          <xm:sqref>C103:C153 C2:C100</xm:sqref>
+          <xm:sqref>C2:D100 C104:C153</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13512,7 +13634,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13527,38 +13649,38 @@
     <row r="1" spans="1:9" ht="45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="42" t="s">
+      <c r="E1" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="41" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>39</v>
+      <c r="E2" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="8">
         <v>200</v>
@@ -13567,18 +13689,18 @@
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="8">
         <v>150</v>
@@ -13587,18 +13709,18 @@
     <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="8">
         <v>125</v>
@@ -13607,18 +13729,18 @@
     <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="8">
         <v>100</v>
@@ -13627,18 +13749,18 @@
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" s="8">
         <v>75</v>
@@ -13647,18 +13769,18 @@
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="I7" s="8">
         <v>50</v>
@@ -13667,15 +13789,15 @@
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
@@ -13683,7 +13805,7 @@
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -13695,7 +13817,7 @@
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -13707,7 +13829,7 @@
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -13719,7 +13841,7 @@
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -13750,7 +13872,7 @@
     </row>
     <row r="15" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="3"/>

--- a/ProjectEstimationTemplate.xlsx
+++ b/ProjectEstimationTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhash/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB614247-EA3C-6346-A39C-4DE250663253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92020CB3-112B-F146-A58D-5DE6C9F172A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="500" windowWidth="32120" windowHeight="20500" activeTab="1" xr2:uid="{1B655C53-9223-9C48-865C-9AC28ECBCECA}"/>
+    <workbookView xWindow="1480" yWindow="500" windowWidth="32120" windowHeight="20500" xr2:uid="{1B655C53-9223-9C48-865C-9AC28ECBCECA}"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="3" r:id="rId1"/>
@@ -1308,7 +1308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC6CCE2-EB73-494E-8587-024C1544A406}">
   <dimension ref="B1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1406,11 +1406,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
